--- a/Paratec/detalle termicas_basica.xlsx
+++ b/Paratec/detalle termicas_basica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Switch UH\paratec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicoquintero/Documents/Investigacion andes-EDF/Switch/Sin título/Paratec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BB506D0-2331-430D-97D5-62596B265B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EE7778-48D2-1741-A84E-121069DE1FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="19480" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20230104_095943_excel_document" sheetId="2" r:id="rId1"/>
@@ -324,7 +324,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,7 +499,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,6 +677,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -856,7 +862,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -872,6 +878,9 @@
     </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -936,7 +945,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1224,7 +1233,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1235,34 +1244,34 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.450000000000003" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="6"/>
-    </row>
-    <row r="3" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24">
+    <row r="5" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1275,7 +1284,7 @@
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1285,7 +1294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1306,7 +1315,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="24.6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1327,7 +1336,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1348,7 +1357,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="24.6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1369,7 +1378,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="24.6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1390,7 +1399,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="24.6">
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -1411,7 +1420,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="24.6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -1432,7 +1441,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="24.6">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -1453,7 +1462,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="24.6">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1474,7 +1483,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="24.6">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1495,7 +1504,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="24.6">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -1516,7 +1525,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="24.6">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -1537,7 +1546,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="24.6">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -1558,7 +1567,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="24.6">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -1579,7 +1588,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="24.6">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1600,7 +1609,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="24.6">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -1621,7 +1630,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="24.6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -1642,7 +1651,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="24.6">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -1663,7 +1672,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="24.6">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -1684,7 +1693,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="24.6">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>39</v>
       </c>
@@ -1705,7 +1714,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="24.6">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
@@ -1726,7 +1735,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="24.6">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
@@ -1747,7 +1756,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="24.6">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
@@ -1768,7 +1777,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="24.6">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
@@ -1789,7 +1798,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="24.6">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
@@ -1810,7 +1819,7 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="36.6">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1831,7 +1840,7 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="36.6">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
@@ -1852,7 +1861,7 @@
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>47</v>
       </c>
@@ -1873,7 +1882,7 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>47</v>
       </c>
@@ -1894,7 +1903,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>47</v>
       </c>
@@ -1915,7 +1924,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="24.6">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
@@ -1936,7 +1945,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="24.6">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>54</v>
       </c>
@@ -1957,7 +1966,7 @@
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="24.6">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>54</v>
       </c>
@@ -1978,7 +1987,7 @@
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="24.6">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>58</v>
       </c>
@@ -1999,7 +2008,7 @@
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="24.6">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>58</v>
       </c>
@@ -2020,7 +2029,7 @@
       </c>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="24.6">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>61</v>
       </c>
@@ -2041,7 +2050,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="24.6">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>61</v>
       </c>
@@ -2062,7 +2071,7 @@
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="24.6">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>61</v>
       </c>
@@ -2083,7 +2092,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="24.6">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>61</v>
       </c>
@@ -2104,7 +2113,7 @@
       </c>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="24.6">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>61</v>
       </c>
@@ -2125,7 +2134,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="24.6">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>61</v>
       </c>
@@ -2146,7 +2155,7 @@
       </c>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>69</v>
       </c>
@@ -2167,7 +2176,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="24.6">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>69</v>
       </c>
@@ -2188,7 +2197,7 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="24.6">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>69</v>
       </c>
@@ -2209,7 +2218,7 @@
       </c>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="24.6">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>74</v>
       </c>
@@ -2230,7 +2239,7 @@
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" ht="24.6">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>74</v>
       </c>
@@ -2251,7 +2260,7 @@
       </c>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="24.6">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>77</v>
       </c>
@@ -2272,7 +2281,7 @@
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" ht="24.6">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>77</v>
       </c>
@@ -2293,7 +2302,7 @@
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="24.6">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>79</v>
       </c>
@@ -2314,7 +2323,7 @@
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" ht="24.6">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>79</v>
       </c>
@@ -2335,7 +2344,7 @@
       </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" ht="24.6">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>79</v>
       </c>
@@ -2356,7 +2365,7 @@
       </c>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" ht="36.6">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>82</v>
       </c>
@@ -2377,7 +2386,7 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" ht="36.6">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>85</v>
       </c>
@@ -2398,7 +2407,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" ht="24.6">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>87</v>
       </c>
@@ -2419,7 +2428,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" ht="24.6">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>87</v>
       </c>
@@ -2440,7 +2449,7 @@
       </c>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" ht="24.6">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>87</v>
       </c>
@@ -2463,7 +2472,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="24.6">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>87</v>
       </c>
@@ -2486,7 +2495,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="24.6">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>87</v>
       </c>
@@ -2578,12 +2587,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2592,7 +2595,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A4C92F77D51DB34BB66DB547BA261888" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="036d0ed6745d5cb6fc93e88a90c24f29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3901be2b-e0aa-425f-8ecd-05b022f3c304" xmlns:ns3="1d72c402-e5ab-4c37-8652-a8939ba1b122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8e2230f21ddac050465166b7244a911" ns2:_="" ns3:_="">
     <xsd:import namespace="3901be2b-e0aa-425f-8ecd-05b022f3c304"/>
@@ -2757,14 +2760,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3D2B96D-4FA8-4A38-A56E-E472003E2EE1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A24425DD-514C-4766-AD4A-0935927FE2B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A24425DD-514C-4766-AD4A-0935927FE2B9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B32677B4-1419-4547-9C74-5A72175C5EE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3901be2b-e0aa-425f-8ecd-05b022f3c304"/>
+    <ds:schemaRef ds:uri="1d72c402-e5ab-4c37-8652-a8939ba1b122"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B32677B4-1419-4547-9C74-5A72175C5EE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3D2B96D-4FA8-4A38-A56E-E472003E2EE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>